--- a/data/molecular_features.xlsx
+++ b/data/molecular_features.xlsx
@@ -2799,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1068328757093173</v>
+        <v>0.09654238444482348</v>
       </c>
     </row>
     <row r="27">
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.08349497137552221</v>
+        <v>0.09190631700478312</v>
       </c>
     </row>
     <row r="28">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.07433979606491457</v>
+        <v>0.08756634200862208</v>
       </c>
     </row>
     <row r="29">
@@ -3066,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.06641136272276565</v>
+        <v>0.08349497137552221</v>
       </c>
     </row>
     <row r="30">
@@ -4045,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.3666472634083837</v>
+        <v>0.3305805901415658</v>
       </c>
     </row>
     <row r="41">
@@ -4134,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.2848513074423643</v>
+        <v>0.3143318489196768</v>
       </c>
     </row>
     <row r="42">
@@ -4223,10 +4223,10 @@
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.2527637512566423</v>
+        <v>0.299120868593326</v>
       </c>
     </row>
     <row r="43">
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.2249757470186252</v>
+        <v>0.2848513074423643</v>
       </c>
     </row>
     <row r="44">
@@ -6537,10 +6537,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="AB68" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC68" t="n">
-        <v>2.134010616877174</v>
+        <v>1.899727102166127</v>
       </c>
     </row>
     <row r="69">
@@ -6626,10 +6626,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="AB69" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC69" t="n">
-        <v>1.602676775491258</v>
+        <v>1.794177799769092</v>
       </c>
     </row>
     <row r="70">
@@ -6715,10 +6715,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="AB70" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC70" t="n">
-        <v>1.394240988079851</v>
+        <v>1.695369631167172</v>
       </c>
     </row>
     <row r="71">
@@ -6804,10 +6804,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="AB71" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC71" t="n">
-        <v>1.213734423154228</v>
+        <v>1.602676775491258</v>
       </c>
     </row>
     <row r="72">
@@ -6893,10 +6893,10 @@
         <v>0.04761904761904762</v>
       </c>
       <c r="AB72" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC72" t="n">
-        <v>1.15334431630972</v>
+        <v>1.036452328159645</v>
       </c>
     </row>
     <row r="73">
@@ -6982,10 +6982,10 @@
         <v>0.04761904761904762</v>
       </c>
       <c r="AB73" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC73" t="n">
-        <v>0.8882438496054463</v>
+        <v>0.9837902028698664</v>
       </c>
     </row>
     <row r="74">
@@ -7071,10 +7071,10 @@
         <v>0.04761904761904762</v>
       </c>
       <c r="AB74" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.7842481688927188</v>
+        <v>0.9344914577678429</v>
       </c>
     </row>
     <row r="75">
@@ -7160,10 +7160,10 @@
         <v>0.04761904761904762</v>
       </c>
       <c r="AB75" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.6941873241323864</v>
+        <v>0.8882438496054463</v>
       </c>
     </row>
     <row r="76">
@@ -7249,10 +7249,10 @@
         <v>0.375</v>
       </c>
       <c r="AB76" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.1319213984989932</v>
+        <v>-0.1319404059355279</v>
       </c>
     </row>
     <row r="77">
@@ -7338,10 +7338,10 @@
         <v>0.375</v>
       </c>
       <c r="AB77" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.1319645056475321</v>
+        <v>-0.1319489691571829</v>
       </c>
     </row>
     <row r="78">
@@ -7427,10 +7427,10 @@
         <v>0.375</v>
       </c>
       <c r="AB78" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC78" t="n">
-        <v>-0.1319814160562976</v>
+        <v>-0.1319569854702219</v>
       </c>
     </row>
     <row r="79">
@@ -7516,10 +7516,10 @@
         <v>0.375</v>
       </c>
       <c r="AB79" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC79" t="n">
-        <v>-0.1319960605654563</v>
+        <v>-0.1319645056475321</v>
       </c>
     </row>
     <row r="80">
@@ -7605,10 +7605,10 @@
         <v>0</v>
       </c>
       <c r="AB80" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC80" t="n">
-        <v>0.05731237415339557</v>
+        <v>0.05630180794814942</v>
       </c>
     </row>
     <row r="81">
@@ -7694,10 +7694,10 @@
         <v>0</v>
       </c>
       <c r="AB81" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC81" t="n">
-        <v>0.05502050131517872</v>
+        <v>0.05584652812139206</v>
       </c>
     </row>
     <row r="82">
@@ -7783,10 +7783,10 @@
         <v>0</v>
       </c>
       <c r="AB82" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.05412142754559816</v>
+        <v>0.05542032572249721</v>
       </c>
     </row>
     <row r="83">
@@ -7872,10 +7872,10 @@
         <v>0</v>
       </c>
       <c r="AB83" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.05334282460136675</v>
+        <v>0.05502050131517872</v>
       </c>
     </row>
     <row r="84">
@@ -9296,10 +9296,10 @@
         <v>0.2</v>
       </c>
       <c r="AB99" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC99" t="n">
-        <v>-0.1149815119897492</v>
+        <v>-0.09949582125191882</v>
       </c>
     </row>
     <row r="100">
@@ -9385,10 +9385,10 @@
         <v>0.2</v>
       </c>
       <c r="AB100" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC100" t="n">
-        <v>-0.07986136469131984</v>
+        <v>-0.09251921491011052</v>
       </c>
     </row>
     <row r="101">
@@ -9474,10 +9474,10 @@
         <v>0.2</v>
       </c>
       <c r="AB101" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC101" t="n">
-        <v>-0.06608415912681316</v>
+        <v>-0.08598818457608177</v>
       </c>
     </row>
     <row r="102">
@@ -9563,10 +9563,10 @@
         <v>0.2</v>
       </c>
       <c r="AB102" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC102" t="n">
-        <v>-0.05415302157309394</v>
+        <v>-0.07986136469131984</v>
       </c>
     </row>
     <row r="103">
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="AB117" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC117" t="n">
-        <v>0.3560876807614864</v>
+        <v>0.3173984308374553</v>
       </c>
     </row>
     <row r="118">
@@ -10987,10 +10987,10 @@
         <v>0</v>
       </c>
       <c r="AB118" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC118" t="n">
-        <v>0.2683439579142813</v>
+        <v>0.2999681675738084</v>
       </c>
     </row>
     <row r="119">
@@ -11076,10 +11076,10 @@
         <v>0</v>
       </c>
       <c r="AB119" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC119" t="n">
-        <v>0.2339231653023122</v>
+        <v>0.2836511256586302</v>
       </c>
     </row>
     <row r="120">
@@ -11165,10 +11165,10 @@
         <v>0</v>
       </c>
       <c r="AB120" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC120" t="n">
-        <v>0.2041145651882621</v>
+        <v>0.2683439579142813</v>
       </c>
     </row>
     <row r="121">
@@ -11254,10 +11254,10 @@
         <v>0.2</v>
       </c>
       <c r="AB121" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC121" t="n">
-        <v>0.1453646348160352</v>
+        <v>0.1306032747740065</v>
       </c>
     </row>
     <row r="122">
@@ -11343,10 +11343,10 @@
         <v>0.2</v>
       </c>
       <c r="AB122" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC122" t="n">
-        <v>0.1118872040847904</v>
+        <v>0.1239529935675408</v>
       </c>
     </row>
     <row r="123">
@@ -11432,10 +11432,10 @@
         <v>0.2</v>
       </c>
       <c r="AB123" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC123" t="n">
-        <v>0.09875441619991386</v>
+        <v>0.1177274469104263</v>
       </c>
     </row>
     <row r="124">
@@ -11521,10 +11521,10 @@
         <v>0.2</v>
       </c>
       <c r="AB124" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC124" t="n">
-        <v>0.08738134798338472</v>
+        <v>0.1118872040847904</v>
       </c>
     </row>
     <row r="125">
@@ -11610,10 +11610,10 @@
         <v>0</v>
       </c>
       <c r="AB125" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC125" t="n">
-        <v>0.03481347245103423</v>
+        <v>0.03393928023196316</v>
       </c>
     </row>
     <row r="126">
@@ -11699,10 +11699,10 @@
         <v>0</v>
       </c>
       <c r="AB126" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC126" t="n">
-        <v>0.03283088349063902</v>
+        <v>0.0335454395513772</v>
       </c>
     </row>
     <row r="127">
@@ -11788,10 +11788,10 @@
         <v>0</v>
       </c>
       <c r="AB127" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC127" t="n">
-        <v>0.03205313801522332</v>
+        <v>0.03317675235510139</v>
       </c>
     </row>
     <row r="128">
@@ -11877,10 +11877,10 @@
         <v>0</v>
       </c>
       <c r="AB128" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC128" t="n">
-        <v>0.03137960605654563</v>
+        <v>0.03283088349063902</v>
       </c>
     </row>
     <row r="129">
@@ -12055,10 +12055,10 @@
         <v>0.375</v>
       </c>
       <c r="AB130" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC130" t="n">
-        <v>0.1170297638660077</v>
+        <v>0.1095366877025414</v>
       </c>
     </row>
     <row r="131">
@@ -12144,10 +12144,10 @@
         <v>0.375</v>
       </c>
       <c r="AB131" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC131" t="n">
-        <v>0.1000361442054773</v>
+        <v>0.1061609104403761</v>
       </c>
     </row>
     <row r="132">
@@ -12233,10 +12233,10 @@
         <v>0.375</v>
       </c>
       <c r="AB132" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC132" t="n">
-        <v>0.09336975441619992</v>
+        <v>0.1030007344722976</v>
       </c>
     </row>
     <row r="133">
@@ -12322,10 +12322,10 @@
         <v>0.375</v>
       </c>
       <c r="AB133" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC133" t="n">
-        <v>0.08759662334181964</v>
+        <v>0.1000361442054773</v>
       </c>
     </row>
     <row r="134">
@@ -13390,10 +13390,10 @@
         <v>0.2</v>
       </c>
       <c r="AB145" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC145" t="n">
-        <v>27.89990554640307</v>
+        <v>27.89991199044858</v>
       </c>
     </row>
     <row r="146">
@@ -13479,10 +13479,10 @@
         <v>0.2</v>
       </c>
       <c r="AB146" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC146" t="n">
-        <v>27.89992016091598</v>
+        <v>27.89991489361702</v>
       </c>
     </row>
     <row r="147">
@@ -13568,10 +13568,10 @@
         <v>0.2</v>
       </c>
       <c r="AB147" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC147" t="n">
-        <v>27.8999258940112</v>
+        <v>27.89991761136835</v>
       </c>
     </row>
     <row r="148">
@@ -13657,10 +13657,10 @@
         <v>0.2</v>
       </c>
       <c r="AB148" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC148" t="n">
-        <v>27.89993085890393</v>
+        <v>27.89992016091598</v>
       </c>
     </row>
     <row r="149">
@@ -14725,10 +14725,10 @@
         <v>0.2</v>
       </c>
       <c r="AB160" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC160" t="n">
-        <v>0.1264564158887058</v>
+        <v>0.1142676786628006</v>
       </c>
     </row>
     <row r="161">
@@ -14814,10 +14814,10 @@
         <v>0.2</v>
       </c>
       <c r="AB161" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC161" t="n">
-        <v>0.09881346124090981</v>
+        <v>0.108776414316345</v>
       </c>
     </row>
     <row r="162">
@@ -14903,10 +14903,10 @@
         <v>0.2</v>
       </c>
       <c r="AB162" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC162" t="n">
-        <v>0.0879694671836852</v>
+        <v>0.1036358614082708</v>
       </c>
     </row>
     <row r="163">
@@ -14992,10 +14992,10 @@
         <v>0.2</v>
       </c>
       <c r="AB163" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC163" t="n">
-        <v>0.07857850730269328</v>
+        <v>0.09881346124090981</v>
       </c>
     </row>
     <row r="164">
@@ -15081,10 +15081,10 @@
         <v>0</v>
       </c>
       <c r="AB164" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC164" t="n">
-        <v>0.03271517481237415</v>
+        <v>0.03191591335493775</v>
       </c>
     </row>
     <row r="165">
@@ -15170,10 +15170,10 @@
         <v>0</v>
       </c>
       <c r="AB165" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC165" t="n">
-        <v>0.03090252204858425</v>
+        <v>0.03155583044697345</v>
       </c>
     </row>
     <row r="166">
@@ -15259,10 +15259,10 @@
         <v>0</v>
       </c>
       <c r="AB166" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC166" t="n">
-        <v>0.03019144047106133</v>
+        <v>0.03121874501037842</v>
       </c>
     </row>
     <row r="167">
@@ -15348,10 +15348,10 @@
         <v>0</v>
       </c>
       <c r="AB167" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC167" t="n">
-        <v>0.02957563982312743</v>
+        <v>0.03090252204858425</v>
       </c>
     </row>
     <row r="168">
@@ -15526,10 +15526,10 @@
         <v>0</v>
       </c>
       <c r="AB169" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC169" t="n">
-        <v>0.2471433278418452</v>
+        <v>0.2226409687873103</v>
       </c>
     </row>
     <row r="170">
@@ -15615,10 +15615,10 @@
         <v>0</v>
       </c>
       <c r="AB170" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC170" t="n">
-        <v>0.1915741915519109</v>
+        <v>0.2116021771400297</v>
       </c>
     </row>
     <row r="171">
@@ -15704,10 +15704,10 @@
         <v>0</v>
       </c>
       <c r="AB171" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC171" t="n">
-        <v>0.1697750969409738</v>
+        <v>0.2012684017244132</v>
       </c>
     </row>
     <row r="172">
@@ -15793,10 +15793,10 @@
         <v>0</v>
       </c>
       <c r="AB172" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC172" t="n">
-        <v>0.1508969583277502</v>
+        <v>0.1915741915519109</v>
       </c>
     </row>
     <row r="173">
@@ -16149,10 +16149,10 @@
         <v>0</v>
       </c>
       <c r="AB176" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC176" t="n">
-        <v>0.042277869302581</v>
+        <v>0.04130376940133038</v>
       </c>
     </row>
     <row r="177">
@@ -16238,10 +16238,10 @@
         <v>0</v>
       </c>
       <c r="AB177" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC177" t="n">
-        <v>0.04006869874671205</v>
+        <v>0.04086491835724889</v>
       </c>
     </row>
     <row r="178">
@@ -16327,10 +16327,10 @@
         <v>0</v>
       </c>
       <c r="AB178" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC178" t="n">
-        <v>0.03920206807410599</v>
+        <v>0.04045409548139869</v>
       </c>
     </row>
     <row r="179">
@@ -16416,10 +16416,10 @@
         <v>0</v>
       </c>
       <c r="AB179" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC179" t="n">
-        <v>0.03845156103443655</v>
+        <v>0.04006869874671205</v>
       </c>
     </row>
     <row r="180">
@@ -16861,10 +16861,10 @@
         <v>0.375</v>
       </c>
       <c r="AB184" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC184" t="n">
-        <v>0.1976425041186162</v>
+        <v>0.1819070441753369</v>
       </c>
     </row>
     <row r="185">
@@ -16950,10 +16950,10 @@
         <v>0.375</v>
       </c>
       <c r="AB185" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC185" t="n">
-        <v>0.1619559028315024</v>
+        <v>0.1748179119247897</v>
       </c>
     </row>
     <row r="186">
@@ -17039,10 +17039,10 @@
         <v>0.375</v>
       </c>
       <c r="AB186" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC186" t="n">
-        <v>0.1479564842740198</v>
+        <v>0.168181542391825</v>
       </c>
     </row>
     <row r="187">
@@ -17128,10 +17128,10 @@
         <v>0.375</v>
       </c>
       <c r="AB187" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC187" t="n">
-        <v>0.1358329090178213</v>
+        <v>0.1619559028315024</v>
       </c>
     </row>
     <row r="188">
@@ -17929,10 +17929,10 @@
         <v>0.375</v>
       </c>
       <c r="AB196" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC196" t="n">
-        <v>0.2403468790042102</v>
+        <v>0.217468019785093</v>
       </c>
     </row>
     <row r="197">
@@ -18018,10 +18018,10 @@
         <v>0.375</v>
       </c>
       <c r="AB197" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC197" t="n">
-        <v>0.1884596936407241</v>
+        <v>0.2071606465446149</v>
       </c>
     </row>
     <row r="198">
@@ -18107,10 +18107,10 @@
         <v>0.375</v>
       </c>
       <c r="AB198" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC198" t="n">
-        <v>0.1681049834841304</v>
+        <v>0.197511575922082</v>
       </c>
     </row>
     <row r="199">
@@ -18196,10 +18196,10 @@
         <v>0.375</v>
       </c>
       <c r="AB199" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC199" t="n">
-        <v>0.1504776899370227</v>
+        <v>0.1884596936407241</v>
       </c>
     </row>
     <row r="200">
@@ -18285,10 +18285,10 @@
         <v>0</v>
       </c>
       <c r="AB200" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC200" t="n">
-        <v>0.04087124290682775</v>
+        <v>0.04007497867985673</v>
       </c>
     </row>
     <row r="201">
@@ -18374,10 +18374,10 @@
         <v>0</v>
       </c>
       <c r="AB201" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC201" t="n">
-        <v>0.03906538759090206</v>
+        <v>0.03971624608279729</v>
       </c>
     </row>
     <row r="202">
@@ -18463,10 +18463,10 @@
         <v>0</v>
       </c>
       <c r="AB202" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC202" t="n">
-        <v>0.03835697256929484</v>
+        <v>0.03938042471658949</v>
       </c>
     </row>
     <row r="203">
@@ -18552,10 +18552,10 @@
         <v>0</v>
       </c>
       <c r="AB203" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC203" t="n">
-        <v>0.0377434811737907</v>
+        <v>0.03906538759090206</v>
       </c>
     </row>
     <row r="204">
@@ -18641,10 +18641,10 @@
         <v>0</v>
       </c>
       <c r="AB204" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC204" t="n">
-        <v>0.03271517481237415</v>
+        <v>0.03191591335493775</v>
       </c>
     </row>
     <row r="205">
@@ -18730,10 +18730,10 @@
         <v>0</v>
       </c>
       <c r="AB205" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC205" t="n">
-        <v>0.03090252204858425</v>
+        <v>0.03155583044697345</v>
       </c>
     </row>
     <row r="206">
@@ -18819,10 +18819,10 @@
         <v>0</v>
       </c>
       <c r="AB206" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC206" t="n">
-        <v>0.03019144047106133</v>
+        <v>0.03121874501037842</v>
       </c>
     </row>
     <row r="207">
@@ -18908,10 +18908,10 @@
         <v>0</v>
       </c>
       <c r="AB207" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC207" t="n">
-        <v>0.02957563982312743</v>
+        <v>0.03090252204858425</v>
       </c>
     </row>
     <row r="208">
@@ -19264,10 +19264,10 @@
         <v>0.2</v>
       </c>
       <c r="AB211" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC211" t="n">
-        <v>0.1756948380010984</v>
+        <v>0.1578613167320485</v>
       </c>
     </row>
     <row r="212">
@@ -19353,10 +19353,10 @@
         <v>0.2</v>
       </c>
       <c r="AB212" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC212" t="n">
-        <v>0.1352500232090361</v>
+        <v>0.149826966848095</v>
       </c>
     </row>
     <row r="213">
@@ -19442,10 +19442,10 @@
         <v>0.2</v>
       </c>
       <c r="AB213" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC213" t="n">
-        <v>0.1193840155105558</v>
+        <v>0.1423057480440684</v>
       </c>
     </row>
     <row r="214">
@@ -19531,10 +19531,10 @@
         <v>0.2</v>
       </c>
       <c r="AB214" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC214" t="n">
-        <v>0.1056439635535308</v>
+        <v>0.1352500232090361</v>
       </c>
     </row>
     <row r="215">
@@ -20332,10 +20332,10 @@
         <v>0.25</v>
       </c>
       <c r="AB223" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC223" t="n">
-        <v>0.07220131978766248</v>
+        <v>0.06467402524304965</v>
       </c>
     </row>
     <row r="224">
@@ -20421,10 +20421,10 @@
         <v>0.25</v>
       </c>
       <c r="AB224" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC224" t="n">
-        <v>0.05513009593068235</v>
+        <v>0.06128283193138712</v>
       </c>
     </row>
     <row r="225">
@@ -20510,10 +20510,10 @@
         <v>0.25</v>
       </c>
       <c r="AB225" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC225" t="n">
-        <v>0.04843326296136724</v>
+        <v>0.05810822449305446</v>
       </c>
     </row>
     <row r="226">
@@ -20599,10 +20599,10 @@
         <v>0.25</v>
       </c>
       <c r="AB226" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC226" t="n">
-        <v>0.04263376792174729</v>
+        <v>0.05513009593068235</v>
       </c>
     </row>
     <row r="227">
@@ -20866,10 +20866,10 @@
         <v>0</v>
       </c>
       <c r="AB229" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC229" t="n">
-        <v>0.09023316858868755</v>
+        <v>0.08288995394849054</v>
       </c>
     </row>
     <row r="230">
@@ -20955,10 +20955,10 @@
         <v>0</v>
       </c>
       <c r="AB230" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC230" t="n">
-        <v>0.07357942132136779</v>
+        <v>0.07958169223156854</v>
       </c>
     </row>
     <row r="231">
@@ -21044,10 +21044,10 @@
         <v>0</v>
       </c>
       <c r="AB231" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC231" t="n">
-        <v>0.06704635932787592</v>
+        <v>0.07648471978285168</v>
       </c>
     </row>
     <row r="232">
@@ -21133,10 +21133,10 @@
         <v>0</v>
       </c>
       <c r="AB232" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC232" t="n">
-        <v>0.06138869087498325</v>
+        <v>0.07357942132136779</v>
       </c>
     </row>
     <row r="233">
@@ -21578,10 +21578,10 @@
         <v>0</v>
       </c>
       <c r="AB237" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC237" t="n">
-        <v>0.4778088962108731</v>
+        <v>0.4649957359713457</v>
       </c>
     </row>
     <row r="238">
@@ -21667,10 +21667,10 @@
         <v>0</v>
       </c>
       <c r="AB238" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC238" t="n">
-        <v>0.4487498065913662</v>
+        <v>0.459223156853043</v>
       </c>
     </row>
     <row r="239">
@@ -21756,10 +21756,10 @@
         <v>0</v>
       </c>
       <c r="AB239" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC239" t="n">
-        <v>0.4373502800517018</v>
+        <v>0.453819255947629</v>
       </c>
     </row>
     <row r="240">
@@ -21845,10 +21845,10 @@
         <v>0</v>
       </c>
       <c r="AB240" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC240" t="n">
-        <v>0.4274782259145116</v>
+        <v>0.4487498065913662</v>
       </c>
     </row>
     <row r="241">
@@ -21934,10 +21934,10 @@
         <v>0</v>
       </c>
       <c r="AB241" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC241" t="n">
-        <v>0.08609756544023431</v>
+        <v>0.07865444311785777</v>
       </c>
     </row>
     <row r="242">
@@ -22023,10 +22023,10 @@
         <v>0</v>
       </c>
       <c r="AB242" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC242" t="n">
-        <v>0.06921723657744083</v>
+        <v>0.07530117103744022</v>
       </c>
     </row>
     <row r="243">
@@ -22112,10 +22112,10 @@
         <v>0</v>
       </c>
       <c r="AB243" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC243" t="n">
-        <v>0.0625952893867586</v>
+        <v>0.07216206290914898</v>
       </c>
     </row>
     <row r="244">
@@ -22201,10 +22201,10 @@
         <v>0</v>
       </c>
       <c r="AB244" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC244" t="n">
-        <v>0.05686064585287418</v>
+        <v>0.06921723657744083</v>
       </c>
     </row>
     <row r="245">
@@ -22290,10 +22290,10 @@
         <v>0</v>
       </c>
       <c r="AB245" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC245" t="n">
-        <v>0.04452802489474648</v>
+        <v>0.04341405423844448</v>
       </c>
     </row>
     <row r="246">
@@ -22379,10 +22379,10 @@
         <v>0</v>
       </c>
       <c r="AB246" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC246" t="n">
-        <v>0.0420016401052143</v>
+        <v>0.04291218868546924</v>
       </c>
     </row>
     <row r="247">
@@ -22468,10 +22468,10 @@
         <v>0</v>
       </c>
       <c r="AB247" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC247" t="n">
-        <v>0.04101057015654172</v>
+        <v>0.04244237585821491</v>
       </c>
     </row>
     <row r="248">
@@ -22557,10 +22557,10 @@
         <v>0</v>
       </c>
       <c r="AB248" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC248" t="n">
-        <v>0.04015229800348386</v>
+        <v>0.0420016401052143</v>
       </c>
     </row>
     <row r="249">
@@ -22646,10 +22646,10 @@
         <v>0</v>
       </c>
       <c r="AB249" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC249" t="n">
-        <v>0.3560876807614864</v>
+        <v>0.3173984308374553</v>
       </c>
     </row>
     <row r="250">
@@ -22735,10 +22735,10 @@
         <v>0</v>
       </c>
       <c r="AB250" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC250" t="n">
-        <v>0.2683439579142813</v>
+        <v>0.2999681675738084</v>
       </c>
     </row>
     <row r="251">
@@ -22824,10 +22824,10 @@
         <v>0</v>
       </c>
       <c r="AB251" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC251" t="n">
-        <v>0.2339231653023122</v>
+        <v>0.2836511256586302</v>
       </c>
     </row>
     <row r="252">
@@ -22913,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="AB252" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC252" t="n">
-        <v>0.2041145651882621</v>
+        <v>0.2683439579142813</v>
       </c>
     </row>
     <row r="253">
@@ -23002,10 +23002,10 @@
         <v>0</v>
       </c>
       <c r="AB253" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC253" t="n">
-        <v>0.36296448837635</v>
+        <v>0.346729490022173</v>
       </c>
     </row>
     <row r="254">
@@ -23091,10 +23091,10 @@
         <v>0</v>
       </c>
       <c r="AB254" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC254" t="n">
-        <v>0.3261449791118676</v>
+        <v>0.3394153059541481</v>
       </c>
     </row>
     <row r="255">
@@ -23180,10 +23180,10 @@
         <v>0</v>
       </c>
       <c r="AB255" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC255" t="n">
-        <v>0.3117011345684332</v>
+        <v>0.3325682580233115</v>
       </c>
     </row>
     <row r="256">
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="AB256" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC256" t="n">
-        <v>0.2991926839072759</v>
+        <v>0.3261449791118676</v>
       </c>
     </row>
     <row r="257">
@@ -23625,10 +23625,10 @@
         <v>0.375</v>
       </c>
       <c r="AB260" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC260" t="n">
-        <v>0.001570954237598389</v>
+        <v>0.001451564557393826</v>
       </c>
     </row>
     <row r="261">
@@ -23714,10 +23714,10 @@
         <v>0.375</v>
       </c>
       <c r="AB261" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC261" t="n">
-        <v>0.001300189231007272</v>
+        <v>0.001397777173016659</v>
       </c>
     </row>
     <row r="262">
@@ -23803,10 +23803,10 @@
         <v>0.375</v>
       </c>
       <c r="AB262" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC262" t="n">
-        <v>0.001193971420364785</v>
+        <v>0.001347425035925276</v>
       </c>
     </row>
     <row r="263">
@@ -23892,10 +23892,10 @@
         <v>0.375</v>
       </c>
       <c r="AB263" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC263" t="n">
-        <v>0.00110198619857966</v>
+        <v>0.001300189231007272</v>
       </c>
     </row>
     <row r="264">
@@ -24070,10 +24070,10 @@
         <v>0.2</v>
       </c>
       <c r="AB265" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC265" t="n">
-        <v>0.06713842211239247</v>
+        <v>0.06149363806924783</v>
       </c>
     </row>
     <row r="266">
@@ -24159,10 +24159,10 @@
         <v>0.2</v>
       </c>
       <c r="AB266" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC266" t="n">
-        <v>0.05433656196812627</v>
+        <v>0.05895055253174997</v>
       </c>
     </row>
     <row r="267">
@@ -24248,10 +24248,10 @@
         <v>0.2</v>
       </c>
       <c r="AB267" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC267" t="n">
-        <v>0.04931454832687061</v>
+        <v>0.05656988663579755</v>
       </c>
     </row>
     <row r="268">
@@ -24337,10 +24337,10 @@
         <v>0.2</v>
       </c>
       <c r="AB268" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC268" t="n">
-        <v>0.04496545625083748</v>
+        <v>0.05433656196812627</v>
       </c>
     </row>
     <row r="269">
@@ -24782,10 +24782,10 @@
         <v>0</v>
       </c>
       <c r="AB273" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC273" t="n">
-        <v>0.3399544206479956</v>
+        <v>0.324743476036159</v>
       </c>
     </row>
     <row r="274">
@@ -24871,10 +24871,10 @@
         <v>0</v>
       </c>
       <c r="AB274" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC274" t="n">
-        <v>0.305457372737119</v>
+        <v>0.3178906481939634</v>
       </c>
     </row>
     <row r="275">
@@ -24960,10 +24960,10 @@
         <v>0</v>
       </c>
       <c r="AB275" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC275" t="n">
-        <v>0.2919246014648859</v>
+        <v>0.3114754909787642</v>
       </c>
     </row>
     <row r="276">
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="AB276" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC276" t="n">
-        <v>0.2802051453838939</v>
+        <v>0.305457372737119</v>
       </c>
     </row>
     <row r="277">
@@ -27096,10 +27096,10 @@
         <v>0.25</v>
       </c>
       <c r="AB299" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC299" t="n">
-        <v>0.05637949295259016</v>
+        <v>0.05298263175848542</v>
       </c>
     </row>
     <row r="300">
@@ -27185,10 +27185,10 @@
         <v>0.25</v>
       </c>
       <c r="AB300" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC300" t="n">
-        <v>0.04867571870648306</v>
+        <v>0.05145227939963715</v>
       </c>
     </row>
     <row r="301">
@@ -27274,10 +27274,10 @@
         <v>0.25</v>
       </c>
       <c r="AB301" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC301" t="n">
-        <v>0.04565362200201063</v>
+        <v>0.05001966629410826</v>
       </c>
     </row>
     <row r="302">
@@ -27363,10 +27363,10 @@
         <v>0.25</v>
       </c>
       <c r="AB302" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC302" t="n">
-        <v>0.04303646924829157</v>
+        <v>0.04867571870648306</v>
       </c>
     </row>
     <row r="303">
@@ -27986,10 +27986,10 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="AB309" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC309" t="n">
-        <v>0.03640252608456893</v>
+        <v>0.02771055773494797</v>
       </c>
     </row>
     <row r="310">
@@ -28075,10 +28075,10 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="AB310" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC310" t="n">
-        <v>0.01668992727835371</v>
+        <v>0.02379465611083623</v>
       </c>
     </row>
     <row r="311">
@@ -28164,10 +28164,10 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="AB311" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC311" t="n">
-        <v>0.008956915122791897</v>
+        <v>0.02012885198786524</v>
       </c>
     </row>
     <row r="312">
@@ -28253,10 +28253,10 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="AB312" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC312" t="n">
-        <v>0.002260083076510794</v>
+        <v>0.01668992727835371</v>
       </c>
     </row>
     <row r="313">
@@ -29410,10 +29410,10 @@
         <v>0</v>
       </c>
       <c r="AB325" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC325" t="n">
-        <v>0.9148380010982977</v>
+        <v>0.8196759338222754</v>
       </c>
     </row>
     <row r="326">
@@ -29499,10 +29499,10 @@
         <v>0</v>
       </c>
       <c r="AB326" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC326" t="n">
-        <v>0.6990190314095621</v>
+        <v>0.7768035625927761</v>
       </c>
     </row>
     <row r="327">
@@ -29588,10 +29588,10 @@
         <v>0</v>
       </c>
       <c r="AB327" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC327" t="n">
-        <v>0.614355881085739</v>
+        <v>0.73666932779818</v>
       </c>
     </row>
     <row r="328">
@@ -29677,10 +29677,10 @@
         <v>0</v>
       </c>
       <c r="AB328" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC328" t="n">
-        <v>0.5410371164411096</v>
+        <v>0.6990190314095621</v>
       </c>
     </row>
     <row r="329">
@@ -29766,10 +29766,10 @@
         <v>0</v>
       </c>
       <c r="AB329" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC329" t="n">
-        <v>0.8146677649643055</v>
+        <v>0.7120126215248168</v>
       </c>
     </row>
     <row r="330">
@@ -29855,10 +29855,10 @@
         <v>0</v>
       </c>
       <c r="AB330" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC330" t="n">
-        <v>0.5818551756150396</v>
+        <v>0.665764473033152</v>
       </c>
     </row>
     <row r="331">
@@ -29944,10 +29944,10 @@
         <v>0</v>
       </c>
       <c r="AB331" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC331" t="n">
-        <v>0.490525635501939</v>
+        <v>0.6224700622704775</v>
       </c>
     </row>
     <row r="332">
@@ -30033,10 +30033,10 @@
         <v>0</v>
       </c>
       <c r="AB332" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC332" t="n">
-        <v>0.4114337397829293</v>
+        <v>0.5818551756150396</v>
       </c>
     </row>
     <row r="333">
@@ -30122,10 +30122,10 @@
         <v>0</v>
       </c>
       <c r="AB333" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="AC333" t="n">
-        <v>0.4942650558301301</v>
+        <v>0.4325720620842573</v>
       </c>
     </row>
     <row r="334">
@@ -30211,10 +30211,10 @@
         <v>0</v>
       </c>
       <c r="AB334" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="AC334" t="n">
-        <v>0.3543509206250968</v>
+        <v>0.4047781626257629</v>
       </c>
     </row>
     <row r="335">
@@ -30300,10 +30300,10 @@
         <v>0</v>
       </c>
       <c r="AB335" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="AC335" t="n">
-        <v>0.299464311360046</v>
+        <v>0.3787593804885839</v>
       </c>
     </row>
     <row r="336">
@@ -30389,10 +30389,10 @@
         <v>0</v>
       </c>
       <c r="AB336" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="AC336" t="n">
-        <v>0.2519321988476484</v>
+        <v>0.3543509206250968</v>
       </c>
     </row>
   </sheetData>
